--- a/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
@@ -1,108 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>160910</t>
-  </si>
-  <si>
-    <t>005444</t>
-  </si>
-  <si>
-    <t>大成创新成长混合(LOF)</t>
-  </si>
-  <si>
-    <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-  </si>
-  <si>
-    <t>15.38</t>
-  </si>
-  <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>89.29</t>
-  </si>
-  <si>
-    <t>41.62</t>
-  </si>
-  <si>
-    <t>5.80</t>
-  </si>
-  <si>
-    <t>1.93</t>
-  </si>
-  <si>
-    <t>0.8920</t>
-  </si>
-  <si>
-    <t>0.0172</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -125,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -427,89 +446,683 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2568</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.06</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1181,13 +1224,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1457,7 +1458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1468,17 +1469,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1488,14 +1509,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.13</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4802</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1504,14 +1547,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.06</v>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2617</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1520,13 +1585,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1780,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,17 +1792,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1811,14 +1832,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.12</v>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2490</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1827,14 +1870,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.13</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9945</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1843,14 +1908,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.06</v>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1859,13 +1946,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3623</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.91</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,129 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.38</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8920</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.68</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>41.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -587,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -638,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160910</t>
+          <t>519702</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成创新成长混合(LOF)</t>
+          <t>交银趋势优先混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.99</t>
+          <t>90.32</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.63</t>
+          <t>81.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.59</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1158</t>
+          <t>2.2490</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -676,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>160910</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>11.55</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>88.33</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>8.61</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2568</t>
+          <t>0.9945</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -714,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>014038</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>交银启诚混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>28.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>74.76</t>
+          <t>80.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2510</t>
+          <t>0.7669</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -752,32 +736,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009230</t>
+          <t>013430</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华安和混合A</t>
+          <t>交银趋势优先混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>11.94</t>
+          <t>14.55</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>25.31</t>
+          <t>81.69</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.3623</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -790,36 +774,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009667</t>
+          <t>014039</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华安庆混合A</t>
+          <t>交银启诚混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.63</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.86</t>
+          <t>80.57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.71</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0872</t>
+          <t>0.2130</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -828,36 +812,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005416</t>
+          <t>011431</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华尊惠18个月定期开放混合A</t>
+          <t>泰达宏利消费服务混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8.21</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>29.32</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0788</t>
+          <t>0.0401</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -876,26 +860,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0590</t>
+          <t>0.0331</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -904,36 +888,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009231</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华安和混合C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.85</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>25.31</t>
+          <t>91.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0354</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -942,36 +926,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005444</t>
+          <t>009513</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+          <t>创金合信同顺创业板精选股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>49.62</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0323</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -980,36 +964,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009668</t>
+          <t>011432</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华安庆混合C</t>
+          <t>泰达宏利消费服务混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>26.86</t>
+          <t>88.17</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0250</t>
+          <t>0.0034</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1018,112 +1002,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>009514</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>创金合信同顺创业板精选股票C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>92.39</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0203</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005417</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华尊惠18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>29.32</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.40</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1203,21 +1111,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.91</t>
+          <t>85.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2488</t>
+          <t>1.4802</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1226,36 +1134,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>71.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2734</t>
+          <t>0.2617</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1264,36 +1172,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.86</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2696</t>
+          <t>0.2512</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1302,36 +1210,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2586</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1350,26 +1258,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0387</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1378,36 +1286,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>90.57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1416,36 +1324,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1525,21 +1433,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>85.97</t>
+          <t>77.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4802</t>
+          <t>1.2488</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1548,36 +1456,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>71.70</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.43</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2617</t>
+          <t>0.2734</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1586,36 +1494,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>77.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2512</t>
+          <t>0.2696</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1624,36 +1532,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>5.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0503</t>
+          <t>0.2586</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1672,26 +1580,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.89</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.56</t>
+          <t>5.13</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0387</t>
+          <t>0.0385</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1700,36 +1608,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.57</t>
+          <t>93.88</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0193</t>
+          <t>0.0221</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1738,36 +1646,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.29</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0184</t>
+          <t>0.0180</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +1689,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1802,7 +1710,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1832,36 +1740,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519702</t>
+          <t>160910</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银趋势优先混合</t>
+          <t>大成创新成长混合(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.32</t>
+          <t>12.99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>88.63</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>8.59</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.2490</t>
+          <t>1.1158</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1870,36 +1778,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160910</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成创新成长混合(LOF)</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11.55</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.33</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.61</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9945</t>
+          <t>0.2568</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1908,36 +1816,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>014038</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银启诚混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.30</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.57</t>
+          <t>74.76</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7669</t>
+          <t>0.2510</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1946,32 +1854,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>013430</t>
+          <t>009230</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银趋势优先混合C</t>
+          <t>鹏华安和混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>14.55</t>
+          <t>11.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>81.69</t>
+          <t>25.31</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3623</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1984,36 +1892,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>014039</t>
+          <t>009667</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银启诚混合C</t>
+          <t>鹏华安庆混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>10.63</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.57</t>
+          <t>26.86</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.71</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2130</t>
+          <t>0.0872</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2022,36 +1930,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011431</t>
+          <t>005416</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合A</t>
+          <t>鹏华尊惠18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.17</t>
+          <t>29.32</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0401</t>
+          <t>0.0788</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2070,26 +1978,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0331</t>
+          <t>0.0590</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -2098,36 +2006,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>009231</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>鹏华安和混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>25.31</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0354</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -2136,36 +2044,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009513</t>
+          <t>005444</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票A</t>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>49.62</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2174,36 +2082,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011432</t>
+          <t>009668</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>泰达宏利消费服务混合C</t>
+          <t>鹏华安庆混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.17</t>
+          <t>26.86</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0250</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2212,36 +2120,112 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009514</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创金合信同顺创业板精选股票C</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.39</t>
+          <t>92.40</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0203</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2255,112 +2239,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.68</v>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.91</v>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>4.68</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>2.12</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -566,6 +583,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6861</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8689</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7868</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2419</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002376</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保核心产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005175</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保消费新蓝海灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.59</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012665</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012666</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国寿安保裕祥混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.24</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1032,328 +1675,6 @@
       </c>
       <c r="H12" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4802</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>71.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2617</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2512</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0503</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0387</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1433,21 +1754,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.91</t>
+          <t>85.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2488</t>
+          <t>1.4802</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1456,36 +1777,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>71.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2734</t>
+          <t>0.2617</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1494,36 +1815,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.86</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2696</t>
+          <t>0.2512</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1532,36 +1853,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2586</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1580,26 +1901,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0387</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1608,36 +1929,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>90.57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1646,36 +1967,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1684,6 +2005,328 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2233,7 +2876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300873-海晨股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>5.36</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>4.68</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2.12</v>
+        <v>4.68</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -583,6 +600,708 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3496</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014038</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银启诚混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7153</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013430</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4765</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014039</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银启诚混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015780</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005416</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009668</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009667</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华安庆混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011573</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009231</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华安和混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011572</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华安荣混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>39.61</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009230</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安和混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>38.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005417</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华尊惠18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>39.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015781</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成ESG责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1208,7 +1927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1675,328 +2394,6 @@
       </c>
       <c r="H12" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160910</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成创新成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.65</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>85.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.89</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4802</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161605</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通蓝筹成长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>71.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2617</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000717</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2512</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003165</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0503</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0387</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>003166</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2076,21 +2473,21 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>77.91</t>
+          <t>85.97</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2488</t>
+          <t>1.4802</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2099,36 +2496,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003165</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.79</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>71.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>5.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2734</t>
+          <t>0.2617</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2137,36 +2534,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.86</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2696</t>
+          <t>0.2512</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2175,36 +2572,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>003165</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>鹏华弘嘉灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.04</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2586</t>
+          <t>0.0503</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2223,26 +2620,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>94.89</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.13</t>
+          <t>6.56</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0387</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2251,36 +2648,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003166</t>
+          <t>007903</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华弘嘉灵活配置混合C</t>
+          <t>长城量化小盘股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.71</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>90.57</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0221</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2289,36 +2686,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007903</t>
+          <t>003166</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长城量化小盘股票</t>
+          <t>鹏华弘嘉灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>93.95</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.29</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0184</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2327,6 +2724,328 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2488</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161605</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>融通蓝筹成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2696</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华弘嘉灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2876,7 +3595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
